--- a/r5-ELGA-MOPED-125-physische-Anwesenheit---Extension-entfernen-und-ValueSet-anlegen/StructureDefinition-moped-ext-Altersgruppe.xlsx
+++ b/r5-ELGA-MOPED-125-physische-Anwesenheit---Extension-entfernen-und-ValueSet-anlegen/StructureDefinition-moped-ext-Altersgruppe.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-03T14:00:19+00:00</t>
+    <t>2024-10-09T10:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -250,6 +250,9 @@
 </t>
   </si>
   <si>
+    <t>Nach dem Alter in Gruppen eingeteilt, wobei vollendete Lebensjahre ausschlaggebend sind.</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
@@ -325,8 +328,8 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegerinteger64markdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodeableReferenceCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioRatioRangeReferenceSampledDataSignatureTimingContactDetailDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextAvailabilityExtendedContactDetailDosageMeta</t>
+    <t xml:space="preserve">Coding
+</t>
   </si>
   <si>
     <t>Value of extension</t>
@@ -335,8 +338,10 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://example.org/ValueSet/moped-altersgruppe-valueset</t>
   </si>
   <si>
     <t xml:space="preserve">ext-1
@@ -344,16 +349,6 @@
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueUnsignedInt</t>
-  </si>
-  <si>
-    <t>valueUnsignedInt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unsignedInt
 </t>
   </si>
 </sst>
@@ -667,7 +662,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -676,9 +671,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.78125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.05859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -686,7 +681,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -701,7 +696,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.84765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -861,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -924,7 +919,7 @@
         <v>19</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>19</v>
@@ -932,10 +927,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -946,7 +941,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>19</v>
@@ -958,13 +953,13 @@
         <v>19</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1015,30 +1010,30 @@
         <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1061,13 +1056,13 @@
         <v>19</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1106,19 +1101,19 @@
         <v>19</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
@@ -1130,7 +1125,7 @@
         <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>19</v>
@@ -1138,10 +1133,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1149,10 +1144,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>19</v>
@@ -1164,16 +1159,16 @@
         <v>19</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1223,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>19</v>
@@ -1238,15 +1233,15 @@
         <v>19</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1257,7 +1252,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>19</v>
@@ -1269,13 +1264,13 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1302,149 +1297,44 @@
         <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B7" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
